--- a/database/industries/urea/khorasan/cost/yearly.xlsx
+++ b/database/industries/urea/khorasan/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE25729-EC52-4B9B-97D0-1F6C6B86420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FC3823-B72A-4D84-BD3E-AAF0419E3709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,15 +100,15 @@
     <t>متر مکعب</t>
   </si>
   <si>
+    <t>مواد شیمیایی</t>
+  </si>
+  <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>مواد شیمیایی</t>
-  </si>
-  <si>
-    <t>تن</t>
-  </si>
-  <si>
     <t>مقدار خرید طی دوره</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>نرخ موجودی اول دوره</t>
   </si>
   <si>
-    <t>تن / ریال</t>
+    <t>کیلوگرم / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -641,12 +641,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +656,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +724,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,95 +756,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>874458</v>
+        <v>1972045</v>
       </c>
       <c r="F10" s="9">
-        <v>1972045</v>
+        <v>2019690</v>
       </c>
       <c r="G10" s="9">
-        <v>2019690</v>
+        <v>3594710</v>
       </c>
       <c r="H10" s="9">
-        <v>3594710</v>
+        <v>11924765</v>
       </c>
       <c r="I10" s="9">
-        <v>11924765</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10679980</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>118432</v>
+        <v>128153</v>
       </c>
       <c r="F11" s="11">
-        <v>128153</v>
+        <v>165016</v>
       </c>
       <c r="G11" s="11">
-        <v>165016</v>
+        <v>242488</v>
       </c>
       <c r="H11" s="11">
-        <v>242488</v>
+        <v>337924</v>
       </c>
       <c r="I11" s="11">
-        <v>337924</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>429513</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1739063</v>
+        <v>1894576</v>
       </c>
       <c r="F12" s="9">
-        <v>1894576</v>
+        <v>3178047</v>
       </c>
       <c r="G12" s="9">
-        <v>3178047</v>
+        <v>3576400</v>
       </c>
       <c r="H12" s="9">
-        <v>3576400</v>
+        <v>8806344</v>
       </c>
       <c r="I12" s="9">
-        <v>8806344</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11967447</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2731953</v>
+        <v>3994774</v>
       </c>
       <c r="F13" s="13">
-        <v>3994774</v>
+        <v>5362753</v>
       </c>
       <c r="G13" s="13">
-        <v>5362753</v>
+        <v>7413598</v>
       </c>
       <c r="H13" s="13">
-        <v>7413598</v>
+        <v>21069033</v>
       </c>
       <c r="I13" s="13">
-        <v>21069033</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23076940</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -866,29 +866,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2731953</v>
+        <v>3994774</v>
       </c>
       <c r="F15" s="13">
-        <v>3994774</v>
+        <v>5362753</v>
       </c>
       <c r="G15" s="13">
-        <v>5362753</v>
+        <v>7413598</v>
       </c>
       <c r="H15" s="13">
-        <v>7413598</v>
+        <v>21069033</v>
       </c>
       <c r="I15" s="13">
-        <v>21069033</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23076940</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -932,95 +932,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2731953</v>
+        <v>3994774</v>
       </c>
       <c r="F18" s="15">
-        <v>3994774</v>
+        <v>5362753</v>
       </c>
       <c r="G18" s="15">
-        <v>5362753</v>
+        <v>7413598</v>
       </c>
       <c r="H18" s="15">
-        <v>7413598</v>
+        <v>21069033</v>
       </c>
       <c r="I18" s="15">
-        <v>21069033</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23076940</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>61830</v>
+        <v>132393</v>
       </c>
       <c r="F19" s="11">
-        <v>132393</v>
+        <v>434632</v>
       </c>
       <c r="G19" s="11">
-        <v>434632</v>
+        <v>253366</v>
       </c>
       <c r="H19" s="11">
-        <v>253366</v>
+        <v>296852</v>
       </c>
       <c r="I19" s="11">
-        <v>296852</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2498960</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-132393</v>
+        <v>-434632</v>
       </c>
       <c r="F20" s="9">
-        <v>-434632</v>
+        <v>-253366</v>
       </c>
       <c r="G20" s="9">
-        <v>-253366</v>
+        <v>-296852</v>
       </c>
       <c r="H20" s="9">
-        <v>-296852</v>
+        <v>-2498960</v>
       </c>
       <c r="I20" s="9">
-        <v>-2498960</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-819825</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2661390</v>
+        <v>3692535</v>
       </c>
       <c r="F21" s="13">
-        <v>3692535</v>
+        <v>5544019</v>
       </c>
       <c r="G21" s="13">
-        <v>5544019</v>
+        <v>7370112</v>
       </c>
       <c r="H21" s="13">
-        <v>7370112</v>
+        <v>18866925</v>
       </c>
       <c r="I21" s="13">
-        <v>18866925</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24756075</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1042,29 +1042,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2661390</v>
+        <v>3692535</v>
       </c>
       <c r="F23" s="13">
-        <v>3692535</v>
+        <v>5544019</v>
       </c>
       <c r="G23" s="13">
-        <v>5544019</v>
+        <v>7370112</v>
       </c>
       <c r="H23" s="13">
-        <v>7370112</v>
+        <v>18866925</v>
       </c>
       <c r="I23" s="13">
-        <v>18866925</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24756075</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1084,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,7 +1094,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,69 +1134,69 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>360805</v>
+      </c>
+      <c r="F30" s="11">
+        <v>418340</v>
+      </c>
+      <c r="G30" s="11">
+        <v>342711</v>
+      </c>
+      <c r="H30" s="11">
+        <v>364184</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
-        <v>360805</v>
-      </c>
-      <c r="G30" s="11">
-        <v>418340</v>
-      </c>
-      <c r="H30" s="11">
-        <v>342711</v>
-      </c>
-      <c r="I30" s="11">
-        <v>364184</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>360805</v>
       </c>
       <c r="F31" s="15">
-        <v>360805</v>
+        <v>418340</v>
       </c>
       <c r="G31" s="15">
-        <v>418340</v>
+        <v>342711</v>
       </c>
       <c r="H31" s="15">
-        <v>342711</v>
+        <v>364184</v>
       </c>
       <c r="I31" s="15">
-        <v>364184</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1226,7 +1226,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1266,69 +1266,69 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>251970872</v>
+      </c>
+      <c r="F37" s="9">
+        <v>236424353</v>
+      </c>
+      <c r="G37" s="9">
+        <v>213091942</v>
+      </c>
+      <c r="H37" s="9">
+        <v>233103098</v>
+      </c>
+      <c r="I37" s="9">
+        <v>213628692</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="9">
-        <v>251970872</v>
-      </c>
-      <c r="G37" s="9">
-        <v>236424353</v>
-      </c>
-      <c r="H37" s="9">
-        <v>213091942</v>
-      </c>
-      <c r="I37" s="9">
-        <v>233103098</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11">
+        <v>3593696</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3206176</v>
+      </c>
+      <c r="G38" s="11">
+        <v>2885959</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3447830</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="11">
-        <v>3593696</v>
-      </c>
-      <c r="G38" s="11">
-        <v>3206176</v>
-      </c>
-      <c r="H38" s="11">
-        <v>2885959</v>
-      </c>
-      <c r="I38" s="11">
-        <v>3447830</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>255564568</v>
       </c>
       <c r="F39" s="15">
-        <v>255564568</v>
+        <v>239630529</v>
       </c>
       <c r="G39" s="15">
-        <v>239630529</v>
+        <v>215977901</v>
       </c>
       <c r="H39" s="15">
-        <v>215977901</v>
+        <v>236550928</v>
       </c>
       <c r="I39" s="15">
-        <v>236550928</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213628692</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1390,7 +1390,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1398,69 +1398,69 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9">
+        <v>251970872</v>
+      </c>
+      <c r="F45" s="9">
+        <v>236424353</v>
+      </c>
+      <c r="G45" s="9">
+        <v>213091942</v>
+      </c>
+      <c r="H45" s="9">
+        <v>233103098</v>
+      </c>
+      <c r="I45" s="9">
+        <v>213628692</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="9">
-        <v>251970872</v>
-      </c>
-      <c r="G45" s="9">
-        <v>236424353</v>
-      </c>
-      <c r="H45" s="9">
-        <v>213091942</v>
-      </c>
-      <c r="I45" s="9">
-        <v>233103098</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>3543413</v>
+      </c>
+      <c r="F46" s="11">
+        <v>3282805</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2823658</v>
+      </c>
+      <c r="H46" s="11">
+        <v>3257299</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="11">
-        <v>3543413</v>
-      </c>
-      <c r="G46" s="11">
-        <v>3282805</v>
-      </c>
-      <c r="H46" s="11">
-        <v>2823658</v>
-      </c>
-      <c r="I46" s="11">
-        <v>3257299</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>255514285</v>
       </c>
       <c r="F47" s="15">
-        <v>255514285</v>
+        <v>239707158</v>
       </c>
       <c r="G47" s="15">
-        <v>239707158</v>
+        <v>215915600</v>
       </c>
       <c r="H47" s="15">
-        <v>215915600</v>
+        <v>236360397</v>
       </c>
       <c r="I47" s="15">
-        <v>236360397</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213628692</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1470,7 +1470,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1522,7 +1522,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1530,69 +1530,69 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>411088</v>
+      </c>
+      <c r="F54" s="11">
+        <v>341711</v>
+      </c>
+      <c r="G54" s="11">
+        <v>405012</v>
+      </c>
+      <c r="H54" s="11">
+        <v>554715</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="11">
-        <v>411088</v>
-      </c>
-      <c r="G54" s="11">
-        <v>341711</v>
-      </c>
-      <c r="H54" s="11">
-        <v>405012</v>
-      </c>
-      <c r="I54" s="11">
-        <v>554715</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>411088</v>
       </c>
       <c r="F55" s="15">
-        <v>411088</v>
+        <v>341711</v>
       </c>
       <c r="G55" s="15">
-        <v>341711</v>
+        <v>405012</v>
       </c>
       <c r="H55" s="15">
-        <v>405012</v>
+        <v>554715</v>
       </c>
       <c r="I55" s="15">
-        <v>554715</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
@@ -1662,69 +1662,69 @@
         <v>33</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>19290</v>
       </c>
       <c r="F62" s="11">
-        <v>19290</v>
+        <v>25436</v>
       </c>
       <c r="G62" s="11">
-        <v>25436</v>
+        <v>38243</v>
       </c>
       <c r="H62" s="11">
-        <v>38243</v>
-      </c>
-      <c r="I62" s="11">
         <v>57463</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>19290</v>
       </c>
       <c r="F63" s="15">
-        <v>19290</v>
+        <v>25436</v>
       </c>
       <c r="G63" s="15">
-        <v>25436</v>
+        <v>38243</v>
       </c>
       <c r="H63" s="15">
-        <v>38243</v>
+        <v>57463</v>
       </c>
       <c r="I63" s="15">
-        <v>57463</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1734,7 +1734,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1786,7 +1786,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
@@ -1794,69 +1794,69 @@
         <v>33</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9">
+        <v>1885127</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1931905</v>
+      </c>
+      <c r="G69" s="9">
+        <v>3488616</v>
+      </c>
+      <c r="H69" s="9">
+        <v>11679637</v>
+      </c>
+      <c r="I69" s="9">
+        <v>10679980</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1885127</v>
-      </c>
-      <c r="G69" s="9">
-        <v>1931905</v>
-      </c>
-      <c r="H69" s="9">
-        <v>3488616</v>
-      </c>
-      <c r="I69" s="9">
-        <v>11679637</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>92268</v>
       </c>
       <c r="F70" s="11">
-        <v>92268</v>
+        <v>100401</v>
       </c>
       <c r="G70" s="11">
-        <v>100401</v>
+        <v>130159</v>
       </c>
       <c r="H70" s="11">
-        <v>130159</v>
-      </c>
-      <c r="I70" s="11">
         <v>461706</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>1977395</v>
       </c>
       <c r="F71" s="15">
-        <v>1977395</v>
+        <v>2032306</v>
       </c>
       <c r="G71" s="15">
-        <v>2032306</v>
+        <v>3618775</v>
       </c>
       <c r="H71" s="15">
-        <v>3618775</v>
+        <v>12141343</v>
       </c>
       <c r="I71" s="15">
-        <v>12141343</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10679980</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1866,7 +1866,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1918,7 +1918,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -1926,69 +1926,69 @@
         <v>33</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9">
+        <v>1885127</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1931905</v>
+      </c>
+      <c r="G77" s="9">
+        <v>3488616</v>
+      </c>
+      <c r="H77" s="9">
+        <v>11679637</v>
+      </c>
+      <c r="I77" s="9">
+        <v>10679980</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F77" s="9">
-        <v>1885127</v>
-      </c>
-      <c r="G77" s="9">
-        <v>1931905</v>
-      </c>
-      <c r="H77" s="9">
-        <v>3488616</v>
-      </c>
-      <c r="I77" s="9">
-        <v>11679637</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>86918</v>
       </c>
       <c r="F78" s="11">
-        <v>86918</v>
+        <v>87785</v>
       </c>
       <c r="G78" s="11">
-        <v>87785</v>
+        <v>106094</v>
       </c>
       <c r="H78" s="11">
-        <v>106094</v>
-      </c>
-      <c r="I78" s="11">
         <v>245128</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>1972045</v>
       </c>
       <c r="F79" s="15">
-        <v>1972045</v>
+        <v>2019690</v>
       </c>
       <c r="G79" s="15">
-        <v>2019690</v>
+        <v>3594710</v>
       </c>
       <c r="H79" s="15">
-        <v>3594710</v>
+        <v>11924765</v>
       </c>
       <c r="I79" s="15">
-        <v>11924765</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10679980</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1998,7 +1998,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2018,7 +2018,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2050,7 +2050,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2058,69 +2058,69 @@
         <v>33</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F85" s="9">
-        <v>0</v>
-      </c>
-      <c r="G85" s="9">
-        <v>0</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>24640</v>
       </c>
       <c r="F86" s="11">
-        <v>24640</v>
+        <v>38052</v>
       </c>
       <c r="G86" s="11">
-        <v>38052</v>
+        <v>62308</v>
       </c>
       <c r="H86" s="11">
-        <v>62308</v>
-      </c>
-      <c r="I86" s="11">
         <v>274041</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>24640</v>
       </c>
       <c r="F87" s="15">
-        <v>24640</v>
+        <v>38052</v>
       </c>
       <c r="G87" s="15">
-        <v>38052</v>
+        <v>62308</v>
       </c>
       <c r="H87" s="15">
-        <v>62308</v>
+        <v>274041</v>
       </c>
       <c r="I87" s="15">
-        <v>274041</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2130,7 +2130,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2150,7 +2150,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2182,31 +2182,31 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
+      <c r="E93" s="9">
+        <v>53464</v>
       </c>
       <c r="F93" s="9">
-        <v>53464</v>
+        <v>60802</v>
       </c>
       <c r="G93" s="9">
-        <v>60802</v>
+        <v>111590</v>
       </c>
       <c r="H93" s="9">
-        <v>111590</v>
-      </c>
-      <c r="I93" s="9">
         <v>157786</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2216,7 +2216,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2236,7 +2236,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2268,7 +2268,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2276,47 +2276,47 @@
         <v>40</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="9">
+        <v>7482</v>
+      </c>
+      <c r="F99" s="9">
+        <v>8171</v>
+      </c>
+      <c r="G99" s="9">
+        <v>16371</v>
+      </c>
+      <c r="H99" s="9">
+        <v>50105</v>
+      </c>
+      <c r="I99" s="9">
+        <v>49993</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F99" s="9">
-        <v>7482</v>
-      </c>
-      <c r="G99" s="9">
-        <v>8171</v>
-      </c>
-      <c r="H99" s="9">
-        <v>16371</v>
-      </c>
-      <c r="I99" s="9">
-        <v>50105</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
+      <c r="E100" s="11">
+        <v>25675</v>
       </c>
       <c r="F100" s="11">
-        <v>25675</v>
+        <v>31315</v>
       </c>
       <c r="G100" s="11">
-        <v>31315</v>
+        <v>45101</v>
       </c>
       <c r="H100" s="11">
-        <v>45101</v>
-      </c>
-      <c r="I100" s="11">
         <v>133912</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2326,7 +2326,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2336,7 +2336,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>41</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2378,7 +2378,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
@@ -2386,47 +2386,47 @@
         <v>40</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="9">
+        <v>7482</v>
+      </c>
+      <c r="F106" s="9">
+        <v>8171</v>
+      </c>
+      <c r="G106" s="9">
+        <v>16371</v>
+      </c>
+      <c r="H106" s="9">
+        <v>50105</v>
+      </c>
+      <c r="I106" s="9">
+        <v>49993</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F106" s="9">
-        <v>7482</v>
-      </c>
-      <c r="G106" s="9">
-        <v>8171</v>
-      </c>
-      <c r="H106" s="9">
-        <v>16371</v>
-      </c>
-      <c r="I106" s="9">
-        <v>50105</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
+      <c r="E107" s="11">
+        <v>24529</v>
       </c>
       <c r="F107" s="11">
-        <v>24529</v>
+        <v>26741</v>
       </c>
       <c r="G107" s="11">
-        <v>26741</v>
+        <v>37573</v>
       </c>
       <c r="H107" s="11">
-        <v>37573</v>
-      </c>
-      <c r="I107" s="11">
         <v>75255</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2436,7 +2436,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2446,7 +2446,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>42</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2488,31 +2488,31 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9">
+        <v>59939</v>
+      </c>
+      <c r="F113" s="9">
+        <v>111357</v>
+      </c>
+      <c r="G113" s="9">
+        <v>153842</v>
+      </c>
+      <c r="H113" s="9">
+        <v>494021</v>
+      </c>
+      <c r="I113" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="9">
-        <v>59939</v>
-      </c>
-      <c r="G113" s="9">
-        <v>111357</v>
-      </c>
-      <c r="H113" s="9">
-        <v>153842</v>
-      </c>
-      <c r="I113" s="9">
-        <v>494021</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2522,7 +2522,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2532,7 +2532,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2542,7 +2542,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2574,7 +2574,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>44</v>
       </c>
@@ -2587,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="G119" s="9">
-        <v>0</v>
+        <v>419194</v>
       </c>
       <c r="H119" s="9">
-        <v>419194</v>
+        <v>1272143</v>
       </c>
       <c r="I119" s="9">
-        <v>1272143</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1336089</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>45</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>47</v>
       </c>
@@ -2662,95 +2662,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>76082</v>
+        <v>98171</v>
       </c>
       <c r="F123" s="9">
-        <v>98171</v>
+        <v>233342</v>
       </c>
       <c r="G123" s="9">
-        <v>233342</v>
+        <v>127988</v>
       </c>
       <c r="H123" s="9">
-        <v>127988</v>
+        <v>295572</v>
       </c>
       <c r="I123" s="9">
-        <v>295572</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>720004</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>404308</v>
+        <v>433581</v>
       </c>
       <c r="F124" s="11">
-        <v>433581</v>
+        <v>774871</v>
       </c>
       <c r="G124" s="11">
-        <v>774871</v>
+        <v>712109</v>
       </c>
       <c r="H124" s="11">
-        <v>712109</v>
+        <v>3922114</v>
       </c>
       <c r="I124" s="11">
-        <v>3922114</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5224127</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>207592</v>
+        <v>127965</v>
       </c>
       <c r="F125" s="9">
-        <v>127965</v>
+        <v>88232</v>
       </c>
       <c r="G125" s="9">
-        <v>88232</v>
+        <v>138475</v>
       </c>
       <c r="H125" s="9">
-        <v>138475</v>
+        <v>124423</v>
       </c>
       <c r="I125" s="9">
-        <v>124423</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215264</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>469180</v>
+        <v>513085</v>
       </c>
       <c r="F126" s="11">
-        <v>513085</v>
+        <v>691895</v>
       </c>
       <c r="G126" s="11">
-        <v>691895</v>
+        <v>938135</v>
       </c>
       <c r="H126" s="11">
-        <v>938135</v>
+        <v>1298884</v>
       </c>
       <c r="I126" s="11">
-        <v>1298884</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1799205</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>52</v>
       </c>
@@ -2772,48 +2772,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>581901</v>
+        <v>721774</v>
       </c>
       <c r="F128" s="11">
-        <v>721774</v>
+        <v>1389707</v>
       </c>
       <c r="G128" s="11">
-        <v>1389707</v>
+        <v>1240499</v>
       </c>
       <c r="H128" s="11">
-        <v>1240499</v>
+        <v>1893208</v>
       </c>
       <c r="I128" s="11">
-        <v>1893208</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2672758</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>1739063</v>
+        <v>1894576</v>
       </c>
       <c r="F129" s="15">
-        <v>1894576</v>
+        <v>3178047</v>
       </c>
       <c r="G129" s="15">
-        <v>3178047</v>
+        <v>3576400</v>
       </c>
       <c r="H129" s="15">
-        <v>3576400</v>
+        <v>8806344</v>
       </c>
       <c r="I129" s="15">
-        <v>8806344</v>
+        <v>11967447</v>
       </c>
     </row>
   </sheetData>
